--- a/_data/factor_loadings_hult.xlsx
+++ b/_data/factor_loadings_hult.xlsx
@@ -411,13 +411,13 @@
         <v>-0.5348955058011889</v>
       </c>
       <c r="C2">
-        <v>-0.2388621979016016</v>
+        <v>-0.2388621979016015</v>
       </c>
       <c r="D2">
-        <v>0.3655953986657495</v>
+        <v>0.365595398665748</v>
       </c>
       <c r="E2">
-        <v>-0.7233060574623567</v>
+        <v>-0.7233060574623571</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,13 +428,13 @@
         <v>-0.4008450185813</v>
       </c>
       <c r="C3">
-        <v>0.8373917420314235</v>
+        <v>0.8373917420314232</v>
       </c>
       <c r="D3">
-        <v>0.3232694119259319</v>
+        <v>0.3232694119259321</v>
       </c>
       <c r="E3">
-        <v>0.1832900127371846</v>
+        <v>0.1832900127371841</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,13 +445,13 @@
         <v>-0.5307971170315956</v>
       </c>
       <c r="C4">
-        <v>0.08385416422778935</v>
+        <v>0.0838541642277897</v>
       </c>
       <c r="D4">
-        <v>-0.8411793601289574</v>
+        <v>-0.8411793601289572</v>
       </c>
       <c r="E4">
-        <v>-0.0603339356054555</v>
+        <v>-0.0603339356054539</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>-0.5210225422217295</v>
       </c>
       <c r="C5">
-        <v>-0.4844464882036538</v>
+        <v>-0.484446488203654</v>
       </c>
       <c r="D5">
-        <v>0.2329252581420307</v>
+        <v>0.2329252581420317</v>
       </c>
       <c r="E5">
-        <v>0.6630180500434522</v>
+        <v>0.6630180500434514</v>
       </c>
     </row>
   </sheetData>

--- a/_data/factor_loadings_hult.xlsx
+++ b/_data/factor_loadings_hult.xlsx
@@ -411,13 +411,13 @@
         <v>-0.5348955058011889</v>
       </c>
       <c r="C2">
-        <v>-0.2388621979016015</v>
+        <v>-0.2388621979016016</v>
       </c>
       <c r="D2">
-        <v>0.365595398665748</v>
+        <v>0.3655953986657495</v>
       </c>
       <c r="E2">
-        <v>-0.7233060574623571</v>
+        <v>-0.7233060574623567</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,13 +428,13 @@
         <v>-0.4008450185813</v>
       </c>
       <c r="C3">
-        <v>0.8373917420314232</v>
+        <v>0.8373917420314235</v>
       </c>
       <c r="D3">
-        <v>0.3232694119259321</v>
+        <v>0.3232694119259319</v>
       </c>
       <c r="E3">
-        <v>0.1832900127371841</v>
+        <v>0.1832900127371846</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,13 +445,13 @@
         <v>-0.5307971170315956</v>
       </c>
       <c r="C4">
-        <v>0.0838541642277897</v>
+        <v>0.08385416422778935</v>
       </c>
       <c r="D4">
-        <v>-0.8411793601289572</v>
+        <v>-0.8411793601289574</v>
       </c>
       <c r="E4">
-        <v>-0.0603339356054539</v>
+        <v>-0.0603339356054555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>-0.5210225422217295</v>
       </c>
       <c r="C5">
-        <v>-0.484446488203654</v>
+        <v>-0.4844464882036538</v>
       </c>
       <c r="D5">
-        <v>0.2329252581420317</v>
+        <v>0.2329252581420307</v>
       </c>
       <c r="E5">
-        <v>0.6630180500434514</v>
+        <v>0.6630180500434522</v>
       </c>
     </row>
   </sheetData>
